--- a/PopulationsBeta.xlsx
+++ b/PopulationsBeta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kathrynmoormann/Documents/GitHub/ENCH-470-FINAL-PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3010846-E7A9-034D-A972-FB4BD4706BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D696B4F8-7B39-F045-B1D7-520EB5E73049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29040" yWindow="-3780" windowWidth="29040" windowHeight="15840" xr2:uid="{AFC76F10-8A0C-4A8E-BC16-0DBF36A4AB19}"/>
+    <workbookView xWindow="0" yWindow="1100" windowWidth="28800" windowHeight="15840" xr2:uid="{AFC76F10-8A0C-4A8E-BC16-0DBF36A4AB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
